--- a/super_market/supermarkt_sales.xlsx
+++ b/super_market/supermarkt_sales.xlsx
@@ -4556,9 +4556,6 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4583,10 +4580,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5015,7 +5015,7 @@
   <dimension ref="B1:R1004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5040,29 +5040,47 @@
     <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="2:18" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -58118,7 +58136,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -58134,7 +58152,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -58143,415 +58161,415 @@
       <c r="A1" t="s">
         <v>1035</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1036</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1037</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1038</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1039</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1040</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1041</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1042</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1043</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="10"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1044</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="10"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1045</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1046</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1047</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1048</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1049</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1050</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1051</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1052</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1053</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1054</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1055</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1056</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="10"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1057</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="10"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1058</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1059</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1060</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="10"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1061</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1062</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1063</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1064</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1065</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1066</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1067</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="10"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1068</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1069</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1070</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1071</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1072</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1073</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="10"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1074</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="10"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1075</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1076</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1077</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1078</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="10"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1079</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="10"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1080</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="10"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -58572,2257 +58590,2257 @@
       <c r="A50" t="s">
         <v>1084</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1085</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1086</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="6"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1087</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1088</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="6"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1089</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1090</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="6"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1091</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1092</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1093</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="6"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1094</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="6"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1095</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="6"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1096</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="6"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1097</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1098</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="6"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1099</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="6"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1100</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="6"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1101</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="6"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1102</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1103</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1104</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="6"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1105</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1106</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="6"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1107</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="6"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1108</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="6"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1109</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="6"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1110</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="6"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1111</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="6"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1112</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="6"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1113</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="6"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1114</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="6"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1115</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1116</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="6"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1117</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="6"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1118</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="6"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1119</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="6"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1120</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="6"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1121</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="6"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1122</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="6"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1123</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="6"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1124</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="6"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1125</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="6"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1126</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="6"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1127</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="6"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1128</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="6"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1129</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="6"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1130</v>
       </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="6"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1131</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="6"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1132</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="6"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1133</v>
       </c>
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="6"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1134</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="6"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1135</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1136</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="6"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1137</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="6"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1138</v>
       </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="6"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1139</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="6"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1140</v>
       </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="6"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1141</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="6"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1142</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="6"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1143</v>
       </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="6"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1144</v>
       </c>
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="6"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1145</v>
       </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="6"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1146</v>
       </c>
-      <c r="B112" s="6"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="6"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1147</v>
       </c>
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="6"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1148</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1149</v>
       </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="6"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1150</v>
       </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="6"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1151</v>
       </c>
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="6"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1152</v>
       </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="6"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1153</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="6"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1154</v>
       </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="6"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1155</v>
       </c>
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="6"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1156</v>
       </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="6"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1157</v>
       </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="6"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1158</v>
       </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="6"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1159</v>
       </c>
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="6"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1160</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="6"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1161</v>
       </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1162</v>
       </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="6"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1163</v>
       </c>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="6"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1164</v>
       </c>
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="6"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1165</v>
       </c>
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="6"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1166</v>
       </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="6"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1167</v>
       </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="6"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1168</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="6"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1169</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="6"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1170</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="6"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1171</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="6"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1172</v>
       </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="6"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1173</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="6"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1174</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="6"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1175</v>
       </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="6"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="5"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1176</v>
       </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="6"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1177</v>
       </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="6"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1178</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="6"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1179</v>
       </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="6"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1181</v>
       </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="6"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1182</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="6"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1183</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="6"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="5"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1184</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="6"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1185</v>
       </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="6"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1186</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="6"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1187</v>
       </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="6"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1188</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="6"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1189</v>
       </c>
-      <c r="B154" s="6"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="6"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1190</v>
       </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="6"/>
+      <c r="B155" s="5"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="5"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1191</v>
       </c>
-      <c r="B156" s="6"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="6"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="5"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1192</v>
       </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="6"/>
+      <c r="B157" s="5"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1193</v>
       </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="6"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1194</v>
       </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="6"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1195</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="6"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="5"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1196</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="6"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="5"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1197</v>
       </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="6"/>
+      <c r="B162" s="5"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1198</v>
       </c>
-      <c r="B163" s="6"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="6"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="5"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1199</v>
       </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="6"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1111</v>
       </c>
-      <c r="B165" s="6"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="6"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1200</v>
       </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="6"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="5"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1201</v>
       </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="6"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1202</v>
       </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="6"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1203</v>
       </c>
-      <c r="B169" s="6"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="6"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="5"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1204</v>
       </c>
-      <c r="B170" s="6"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="6"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1205</v>
       </c>
-      <c r="B171" s="6"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="6"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="5"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1206</v>
       </c>
-      <c r="B172" s="6"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="6"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="5"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1207</v>
       </c>
-      <c r="B173" s="6"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="6"/>
+      <c r="B173" s="5"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="5"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1208</v>
       </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="6"/>
+      <c r="B174" s="5"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="5"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1209</v>
       </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="6"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="5"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1210</v>
       </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="6"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="5"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1211</v>
       </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="6"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="5"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1212</v>
       </c>
-      <c r="B178" s="6"/>
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="6"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="5"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1213</v>
       </c>
-      <c r="B179" s="6"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="6"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="5"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1214</v>
       </c>
-      <c r="B180" s="6"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="6"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="5"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1215</v>
       </c>
-      <c r="B181" s="6"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="6"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="5"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1180</v>
       </c>
-      <c r="B182" s="6"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="6"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="5"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1216</v>
       </c>
-      <c r="B183" s="6"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="6"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="5"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1217</v>
       </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="6"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="5"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1218</v>
       </c>
-      <c r="B185" s="6"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="6"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="5"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1219</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="6"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="5"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1220</v>
       </c>
-      <c r="B187" s="6"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="6"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="5"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1221</v>
       </c>
-      <c r="B188" s="6"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="6"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="5"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1222</v>
       </c>
-      <c r="B189" s="6"/>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="6"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="5"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1223</v>
       </c>
-      <c r="B190" s="6"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="6"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="5"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1224</v>
       </c>
-      <c r="B191" s="6"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="6"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="5"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1225</v>
       </c>
-      <c r="B192" s="6"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="7"/>
-      <c r="E192" s="6"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="5"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1226</v>
       </c>
-      <c r="B193" s="6"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="6"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="5"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1227</v>
       </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="6"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1228</v>
       </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="6"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="5"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1229</v>
       </c>
-      <c r="B196" s="6"/>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="6"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="5"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1230</v>
       </c>
-      <c r="B197" s="6"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="7"/>
-      <c r="E197" s="6"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="5"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1231</v>
       </c>
-      <c r="B198" s="6"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="6"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="5"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1232</v>
       </c>
-      <c r="B199" s="6"/>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="6"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="5"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1233</v>
       </c>
-      <c r="B200" s="6"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="6"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="5"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1234</v>
       </c>
-      <c r="B201" s="8"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="6"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="5"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1235</v>
       </c>
-      <c r="B202" s="6"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="6"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="5"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1236</v>
       </c>
-      <c r="B203" s="6"/>
-      <c r="C203" s="7"/>
-      <c r="D203" s="7"/>
-      <c r="E203" s="6"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="5"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1237</v>
       </c>
-      <c r="B204" s="6"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="7"/>
-      <c r="E204" s="6"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="5"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1238</v>
       </c>
-      <c r="B205" s="6"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="6"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="5"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1239</v>
       </c>
-      <c r="B206" s="6"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="7"/>
-      <c r="E206" s="6"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="5"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1240</v>
       </c>
-      <c r="B207" s="6"/>
-      <c r="C207" s="7"/>
-      <c r="D207" s="7"/>
-      <c r="E207" s="6"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="5"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1241</v>
       </c>
-      <c r="B208" s="6"/>
-      <c r="C208" s="7"/>
-      <c r="D208" s="7"/>
-      <c r="E208" s="6"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="5"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1242</v>
       </c>
-      <c r="B209" s="6"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="6"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="5"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1243</v>
       </c>
-      <c r="B210" s="6"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="6"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="5"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1244</v>
       </c>
-      <c r="B211" s="6"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="6"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="5"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1245</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="6"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="5"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1246</v>
       </c>
-      <c r="B213" s="6"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="6"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="5"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1247</v>
       </c>
-      <c r="B214" s="6"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="6"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="5"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1248</v>
       </c>
-      <c r="B215" s="6"/>
-      <c r="C215" s="7"/>
-      <c r="D215" s="7"/>
-      <c r="E215" s="6"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="5"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1249</v>
       </c>
-      <c r="B216" s="6"/>
-      <c r="C216" s="7"/>
-      <c r="D216" s="7"/>
-      <c r="E216" s="6"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="5"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1250</v>
       </c>
-      <c r="B217" s="6"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="6"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="5"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1251</v>
       </c>
-      <c r="B218" s="6"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="7"/>
-      <c r="E218" s="6"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="5"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1252</v>
       </c>
-      <c r="B219" s="6"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="7"/>
-      <c r="E219" s="6"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="5"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1253</v>
       </c>
-      <c r="B220" s="6"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="6"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="5"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1254</v>
       </c>
-      <c r="B221" s="6"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="7"/>
-      <c r="E221" s="6"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="5"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1255</v>
       </c>
-      <c r="B222" s="6"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="6"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="5"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1256</v>
       </c>
-      <c r="B223" s="6"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="6"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="5"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1257</v>
       </c>
-      <c r="B224" s="6"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="6"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="5"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1258</v>
       </c>
-      <c r="B225" s="6"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="7"/>
-      <c r="E225" s="6"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="5"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1259</v>
       </c>
-      <c r="B226" s="6"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="6"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="5"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1260</v>
       </c>
-      <c r="B227" s="6"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="6"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="5"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1261</v>
       </c>
-      <c r="B228" s="6"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="6"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="5"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1262</v>
       </c>
-      <c r="B229" s="6"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="6"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="5"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1263</v>
       </c>
-      <c r="B230" s="6"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="6"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="5"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1264</v>
       </c>
-      <c r="B231" s="6"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="6"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="5"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1265</v>
       </c>
-      <c r="B232" s="6"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="6"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="5"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1266</v>
       </c>
-      <c r="B233" s="6"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="6"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="5"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1267</v>
       </c>
-      <c r="B234" s="6"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="6"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="5"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1268</v>
       </c>
-      <c r="B235" s="6"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="6"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="5"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1269</v>
       </c>
-      <c r="B236" s="6"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="6"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="5"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1270</v>
       </c>
-      <c r="B237" s="6"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="6"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="5"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1271</v>
       </c>
-      <c r="B238" s="8"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="6"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="5"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1272</v>
       </c>
-      <c r="B239" s="6"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="6"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="5"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1273</v>
       </c>
-      <c r="B240" s="6"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="6"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="5"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1274</v>
       </c>
-      <c r="B241" s="6"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="6"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="5"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1275</v>
       </c>
-      <c r="B242" s="6"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="7"/>
-      <c r="E242" s="6"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="5"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1276</v>
       </c>
-      <c r="B243" s="6"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="7"/>
-      <c r="E243" s="6"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="5"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1161</v>
       </c>
-      <c r="B244" s="6"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="7"/>
-      <c r="E244" s="6"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="5"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1277</v>
       </c>
-      <c r="B245" s="6"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="6"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="5"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1278</v>
       </c>
-      <c r="B246" s="6"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="6"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="5"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1279</v>
       </c>
-      <c r="B247" s="6"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="6"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="5"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1280</v>
       </c>
-      <c r="B248" s="6"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="6"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="5"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1281</v>
       </c>
-      <c r="B249" s="6"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="6"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="5"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1282</v>
       </c>
-      <c r="B250" s="6"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="6"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="5"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1283</v>
       </c>
-      <c r="B251" s="6"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="6"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="5"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1284</v>
       </c>
-      <c r="B252" s="6"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="6"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="12"/>
+      <c r="E252" s="5"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1285</v>
       </c>
-      <c r="B253" s="6"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="7"/>
-      <c r="E253" s="6"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="5"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1286</v>
       </c>
-      <c r="B254" s="6"/>
-      <c r="C254" s="7"/>
-      <c r="D254" s="7"/>
-      <c r="E254" s="6"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="5"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1287</v>
       </c>
-      <c r="B255" s="6"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="7"/>
-      <c r="E255" s="6"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="5"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1288</v>
       </c>
-      <c r="B256" s="6"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="7"/>
-      <c r="E256" s="6"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="5"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1289</v>
       </c>
-      <c r="B257" s="6"/>
-      <c r="C257" s="7"/>
-      <c r="D257" s="7"/>
-      <c r="E257" s="6"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="5"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1290</v>
       </c>
-      <c r="B258" s="6"/>
-      <c r="C258" s="7"/>
-      <c r="D258" s="7"/>
-      <c r="E258" s="6"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="5"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1291</v>
       </c>
-      <c r="B259" s="6"/>
-      <c r="C259" s="7"/>
-      <c r="D259" s="7"/>
-      <c r="E259" s="6"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="5"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1292</v>
       </c>
-      <c r="B260" s="6"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="7"/>
-      <c r="E260" s="6"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="5"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1293</v>
       </c>
-      <c r="B261" s="6"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="6"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="5"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1294</v>
       </c>
-      <c r="B262" s="6"/>
-      <c r="C262" s="7"/>
-      <c r="D262" s="7"/>
-      <c r="E262" s="6"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="5"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1295</v>
       </c>
-      <c r="B263" s="6"/>
-      <c r="C263" s="7"/>
-      <c r="D263" s="7"/>
-      <c r="E263" s="6"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="5"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1296</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="7"/>
-      <c r="D264" s="7"/>
-      <c r="E264" s="6"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="5"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1297</v>
       </c>
-      <c r="B265" s="6"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="7"/>
-      <c r="E265" s="6"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="5"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1298</v>
       </c>
-      <c r="B266" s="6"/>
-      <c r="C266" s="7"/>
-      <c r="D266" s="7"/>
-      <c r="E266" s="6"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="5"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1299</v>
       </c>
-      <c r="B267" s="6"/>
-      <c r="C267" s="7"/>
-      <c r="D267" s="7"/>
-      <c r="E267" s="6"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="5"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1300</v>
       </c>
-      <c r="B268" s="6"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="6"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="5"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1301</v>
       </c>
-      <c r="B269" s="6"/>
-      <c r="C269" s="7"/>
-      <c r="D269" s="7"/>
-      <c r="E269" s="6"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="6"/>
+      <c r="E269" s="5"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1302</v>
       </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="7"/>
-      <c r="D270" s="7"/>
-      <c r="E270" s="6"/>
+      <c r="B270" s="7"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="5"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1303</v>
       </c>
-      <c r="B271" s="6"/>
-      <c r="C271" s="7"/>
-      <c r="D271" s="7"/>
-      <c r="E271" s="6"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="5"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1304</v>
       </c>
-      <c r="B272" s="6"/>
-      <c r="C272" s="7"/>
-      <c r="D272" s="7"/>
-      <c r="E272" s="6"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="5"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1305</v>
       </c>
-      <c r="B273" s="6"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="6"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="6"/>
+      <c r="E273" s="5"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1306</v>
       </c>
-      <c r="B274" s="6"/>
-      <c r="C274" s="7"/>
-      <c r="D274" s="7"/>
-      <c r="E274" s="6"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="5"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1307</v>
       </c>
-      <c r="B275" s="6"/>
-      <c r="C275" s="7"/>
-      <c r="D275" s="13"/>
-      <c r="E275" s="6"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="5"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1308</v>
       </c>
-      <c r="B276" s="6"/>
-      <c r="C276" s="7"/>
-      <c r="D276" s="13"/>
-      <c r="E276" s="6"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="12"/>
+      <c r="E276" s="5"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1309</v>
       </c>
-      <c r="B277" s="6"/>
-      <c r="C277" s="7"/>
-      <c r="D277" s="13"/>
-      <c r="E277" s="6"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="5"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1310</v>
       </c>
-      <c r="B278" s="6"/>
-      <c r="C278" s="7"/>
-      <c r="D278" s="10"/>
-      <c r="E278" s="6"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="5"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1311</v>
       </c>
-      <c r="B279" s="6"/>
-      <c r="C279" s="7"/>
-      <c r="D279" s="13"/>
-      <c r="E279" s="6"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="5"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1312</v>
       </c>
-      <c r="B280" s="6"/>
-      <c r="C280" s="7"/>
-      <c r="D280" s="10"/>
-      <c r="E280" s="6"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="5"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1313</v>
       </c>
-      <c r="B281" s="6"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="10"/>
-      <c r="E281" s="6"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="5"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1314</v>
       </c>
-      <c r="B282" s="6"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="13"/>
-      <c r="E282" s="6"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="5"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1315</v>
       </c>
-      <c r="B283" s="6"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="10"/>
-      <c r="E283" s="6"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="5"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1316</v>
       </c>
-      <c r="B284" s="6"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="13"/>
-      <c r="E284" s="6"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="5"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1317</v>
       </c>
-      <c r="B285" s="6"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="10"/>
-      <c r="E285" s="6"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="5"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1318</v>
       </c>
-      <c r="B286" s="6"/>
-      <c r="C286" s="7"/>
-      <c r="D286" s="10"/>
-      <c r="E286" s="6"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="5"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1319</v>
       </c>
-      <c r="B287" s="6"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="13"/>
-      <c r="E287" s="6"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="5"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1320</v>
       </c>
-      <c r="B288" s="6"/>
-      <c r="C288" s="7"/>
-      <c r="D288" s="13"/>
-      <c r="E288" s="6"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="5"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1321</v>
       </c>
-      <c r="B289" s="6"/>
-      <c r="C289" s="7"/>
-      <c r="D289" s="10"/>
-      <c r="E289" s="6"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="5"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1066</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="7"/>
-      <c r="D290" s="13"/>
-      <c r="E290" s="6"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="5"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B291" s="6"/>
-      <c r="C291" s="7"/>
-      <c r="D291" s="13"/>
-      <c r="E291" s="6"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="5"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B292" s="6"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="13"/>
-      <c r="E292" s="6"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="5"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B293" s="6"/>
-      <c r="C293" s="7"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="6"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="5"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B294" s="6"/>
-      <c r="C294" s="7"/>
-      <c r="D294" s="7"/>
-      <c r="E294" s="6"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="6"/>
+      <c r="E294" s="5"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B295" s="6"/>
-      <c r="C295" s="7"/>
-      <c r="D295" s="13"/>
-      <c r="E295" s="6"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="5"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B296" s="6"/>
-      <c r="C296" s="7"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="6"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="5"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B297" s="6"/>
-      <c r="C297" s="7"/>
-      <c r="D297" s="7"/>
-      <c r="E297" s="6"/>
+      <c r="B297" s="5"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="6"/>
+      <c r="E297" s="5"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B298" s="6"/>
-      <c r="C298" s="7"/>
-      <c r="D298" s="7"/>
-      <c r="E298" s="6"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298" s="5"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B299" s="6"/>
-      <c r="C299" s="7"/>
-      <c r="D299" s="10"/>
-      <c r="E299" s="6"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="5"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B300" s="6"/>
-      <c r="C300" s="7"/>
-      <c r="D300" s="13"/>
-      <c r="E300" s="6"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="5"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B301" s="6"/>
-      <c r="C301" s="7"/>
-      <c r="D301" s="13"/>
-      <c r="E301" s="6"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="5"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B302" s="6"/>
-      <c r="C302" s="7"/>
-      <c r="D302" s="13"/>
-      <c r="E302" s="6"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="5"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B303" s="6"/>
-      <c r="C303" s="7"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="6"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="5"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B304" s="6"/>
-      <c r="C304" s="7"/>
-      <c r="D304" s="10"/>
-      <c r="E304" s="6"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="5"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="6"/>
+      <c r="B305" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
